--- a/AD010_内部定義/BB030_テーブル設計書/BB030090_コード値.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030090_コード値.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1163A4F5-5489-4CC4-8118-ADA1EAFA6800}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97263748-6ACC-4E55-A1AB-E23607B1284E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="4410" windowWidth="21020" windowHeight="11030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="22380" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -449,7 +449,10 @@
     <t>(1000)</t>
   </si>
   <si>
-    <t xml:space="preserve"> BIGINT</t>
+    <t>CREATE TABLE kind (</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIMESTAMP WITH TIME ZONE</t>
   </si>
 </sst>
 </file>
@@ -870,12 +873,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>44333</v>
+        <v>44394</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -930,9 +934,8 @@
       <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7" t="str">
-        <f>"CREATE TABLE "&amp;基本情報!B2&amp;" ("</f>
-        <v>CREATE TABLE code_value (</v>
+      <c r="J1" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -972,7 +975,7 @@
         <v>65</v>
       </c>
       <c r="M2" s="7" t="str">
-        <f t="shared" ref="M2:M12" si="0">IF(G2="無"," NOT NULL","")</f>
+        <f t="shared" ref="M2:M11" si="0">IF(G2="無"," NOT NULL","")</f>
         <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N2" s="7" t="str">
@@ -1052,7 +1055,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="7" t="str">
-        <f t="shared" ref="J4:J12" si="3">",   "&amp;C4</f>
+        <f t="shared" ref="J4:J11" si="3">",   "&amp;C4</f>
         <v>,   end_date</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -1170,7 +1173,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
@@ -1189,7 +1192,7 @@
         <v>,   created_date</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>65</v>
@@ -1258,7 +1261,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -1277,7 +1280,7 @@
         <v>,   update_date</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>65</v>
@@ -1408,17 +1411,17 @@
         <v>16</v>
       </c>
       <c r="J12" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J12" si="4">",   "&amp;C12</f>
         <v>,   code_kind_id</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M12" si="5">IF(G12="無"," NOT NULL","")</f>
         <v/>
       </c>
       <c r="N12" s="7" t="str">
@@ -1452,7 +1455,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B10"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
